--- a/US airline depatures count.xlsx
+++ b/US airline depatures count.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oneor\Desktop\MS\DSC640\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{537576FB-3826-4046-AFEA-94EE72836807}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCBBB61B-AC8A-4B1D-A6CB-01C739A802B4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1950" windowWidth="15375" windowHeight="7875" xr2:uid="{B2692F98-E0FF-44FB-95B8-53FC63731AFC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{B2692F98-E0FF-44FB-95B8-53FC63731AFC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Year</t>
   </si>
@@ -42,6 +42,9 @@
   </si>
   <si>
     <t>Passengers boarded</t>
+  </si>
+  <si>
+    <t>Load factor</t>
   </si>
 </sst>
 </file>
@@ -111,7 +114,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
@@ -119,6 +122,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -433,10 +437,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4625A268-95A4-43D7-B3E8-1F34B16D8BFF}">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -445,7 +449,7 @@
     <col min="3" max="3" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -455,8 +459,11 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>2005</v>
       </c>
@@ -466,8 +473,11 @@
       <c r="C2" s="2">
         <v>738628</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2" s="3">
+        <v>0.77600000000000002</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>2006</v>
       </c>
@@ -477,8 +487,11 @@
       <c r="C3" s="2">
         <v>744728</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D3" s="3">
+        <v>0.79200000000000004</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>2007</v>
       </c>
@@ -488,8 +501,11 @@
       <c r="C4" s="2">
         <v>769622</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D4" s="3">
+        <v>0.79900000000000004</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>2008</v>
       </c>
@@ -499,8 +515,11 @@
       <c r="C5" s="2">
         <v>743313</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D5" s="3">
+        <v>0.79500000000000004</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>2009</v>
       </c>
@@ -510,8 +529,11 @@
       <c r="C6" s="2">
         <v>703901</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D6" s="3">
+        <v>0.80400000000000005</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>2010</v>
       </c>
@@ -521,8 +543,11 @@
       <c r="C7" s="2">
         <v>720496</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D7" s="3">
+        <v>0.82099999999999995</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>2011</v>
       </c>
@@ -532,8 +557,11 @@
       <c r="C8" s="2">
         <v>730797</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D8" s="3">
+        <v>0.82</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>2012</v>
       </c>
@@ -543,8 +571,11 @@
       <c r="C9" s="2">
         <v>736701</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D9" s="3">
+        <v>0.82799999999999996</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>2013</v>
       </c>
@@ -554,8 +585,11 @@
       <c r="C10" s="2">
         <v>743171</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D10" s="3">
+        <v>0.83099999999999996</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>2014</v>
       </c>
@@ -565,8 +599,11 @@
       <c r="C11" s="2">
         <v>762710</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D11" s="3">
+        <v>0.83399999999999996</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>2015</v>
       </c>
@@ -576,8 +613,11 @@
       <c r="C12" s="2">
         <v>798221</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D12" s="3">
+        <v>0.83799999999999997</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>2016</v>
       </c>
@@ -587,8 +627,11 @@
       <c r="C13" s="2">
         <v>824038</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D13" s="3">
+        <v>0.83399999999999996</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>2017</v>
       </c>
@@ -598,8 +641,11 @@
       <c r="C14" s="2">
         <v>849408</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D14" s="3">
+        <v>0.83499999999999996</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>2018</v>
       </c>
@@ -609,8 +655,11 @@
       <c r="C15" s="2">
         <v>889020</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D15" s="3">
+        <v>0.83699999999999997</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>2019</v>
       </c>
@@ -620,8 +669,12 @@
       <c r="C16" s="2">
         <v>926738</v>
       </c>
+      <c r="D16" s="3">
+        <v>0.84599999999999997</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>